--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80DD0C-DD9A-2747-9B77-8CC79D6EC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ACD4F6-E348-6B47-B04A-32A3695AAA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="34460" windowHeight="20560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -352,11 +352,6 @@
 - `Missing Data &lt;../notebooks/class_3/week_3/35_cleaning_missing_data.html&gt;`_</t>
   </si>
   <si>
-    <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
-- `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>- `Plotting Principles &lt;../notebooks/class_5/week_1/1.1.2_effective_plotting_practices.html&gt;`_
 - `Matplotlib Basics &lt;../notebooks/class_5/week_1/1.2.1_basic_plotting_with_matplotlib.html&gt;`_
 - `Matplotlib Vocabulary &lt;../notebooks/class_5/week_1/1.2.2_ten_figure_pieces.html&gt;`_
@@ -380,11 +375,6 @@
 - `Merge Validation &lt;../notebooks/class_3/week_4/15.3_validating_a_merge.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_</t>
-  </si>
-  <si>
     <t>**Discuss mid-semester project in class**
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience_book/blob/main/ids720_specific/opioids/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
@@ -396,15 +386,6 @@
     <t>- Wes McKinney's *Python for Data Analysis*, Third Edition, Chapter 8, Section 3. Available `online through duke library free &lt;https://learning.oreilly.com/library/view/python-for-data/9781098104023/ch08.html#prep_reshape&gt;`_
 - `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- **Project Strategy Plan Due**</t>
-  </si>
-  <si>
-    <t>- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
-- `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
-- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
-- Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
   </si>
   <si>
     <t>- Defining Your Own Estimators</t>
@@ -430,6 +411,25 @@
   <si>
     <t>- `Dask &lt;exercises/Exercise_dask_realdata.html&gt;`_
 - `More dask (optional) &lt;exercises/Exercise_dask.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Understanding Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
+- `Solving Performance Problems &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
+- `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
+- Using AI Effectively **Link forthcoming**</t>
   </si>
 </sst>
 </file>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>64</v>
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>65</v>
@@ -1037,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>66</v>
@@ -1051,7 +1051,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>67</v>
@@ -1073,46 +1073,46 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>58</v>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>19</v>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>69</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,40 +1120,40 @@
         <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -1163,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>72</v>
@@ -1174,10 +1174,10 @@
         <v>46</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>73</v>
@@ -1191,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ACD4F6-E348-6B47-B04A-32A3695AAA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E588BD-F6C1-B444-9886-796F1691B1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="34460" windowHeight="20560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -111,84 +111,6 @@
     <t>- Plotting</t>
   </si>
   <si>
-    <t>Tues, Aug 27</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 29</t>
-  </si>
-  <si>
-    <t>Tues, Sep 3</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 5</t>
-  </si>
-  <si>
-    <t>Tues, Sep 10</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 12</t>
-  </si>
-  <si>
-    <t>Tues, Sep 17</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 19</t>
-  </si>
-  <si>
-    <t>Tues, Sep 24</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 26</t>
-  </si>
-  <si>
-    <t>Tues, Oct 1</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 3</t>
-  </si>
-  <si>
-    <t>Tues, Oct 8</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 10</t>
-  </si>
-  <si>
-    <t>Tues, Oct 15</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 17</t>
-  </si>
-  <si>
-    <t>Tues, Oct 22</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 24</t>
-  </si>
-  <si>
-    <t>Tues, Oct 29</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 31</t>
-  </si>
-  <si>
-    <t>Tues, Nov 5</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 7</t>
-  </si>
-  <si>
-    <t>Tues, Nov 12</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 14</t>
-  </si>
-  <si>
-    <t>Tues, Nov 19</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 21</t>
-  </si>
-  <si>
     <t>**FALL BREAK** (Not technically, but take the week)</t>
   </si>
   <si>
@@ -430,6 +352,84 @@
 - `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
 - Using AI Effectively **Link forthcoming**</t>
+  </si>
+  <si>
+    <t>Tues, Aug 26</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 28</t>
+  </si>
+  <si>
+    <t>Tues, Sep 2</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 4</t>
+  </si>
+  <si>
+    <t>Tues, Sep 9</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 11</t>
+  </si>
+  <si>
+    <t>Tues, Sep 16</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 18</t>
+  </si>
+  <si>
+    <t>Tues, Sep 23</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 25</t>
+  </si>
+  <si>
+    <t>Tues, Sep 30</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 2</t>
+  </si>
+  <si>
+    <t>Tues, Oct 7</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 9</t>
+  </si>
+  <si>
+    <t>Tues, Oct 14 (Break)</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 16 (Break)</t>
+  </si>
+  <si>
+    <t>Tues, Oct 21</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 23</t>
+  </si>
+  <si>
+    <t>Tues, Oct 28</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 30</t>
+  </si>
+  <si>
+    <t>Tues, Nov 4</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 6</t>
+  </si>
+  <si>
+    <t>Tues, Nov 11</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 13</t>
+  </si>
+  <si>
+    <t>Tues, Nov 18</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 20</t>
   </si>
 </sst>
 </file>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,201 +865,201 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1067,153 +1067,153 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E588BD-F6C1-B444-9886-796F1691B1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D838867-419A-0C4F-BA0B-4B6FC00EFF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -268,12 +268,6 @@
 - `PyArrow Backend &lt;../notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Indices &lt;../notebooks/class_3/week_3/07_indices.html&gt;`_
-- `Views and Copies in Pandas &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_ through `the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/17_views_and_copies_in_pandas_wo_CoW.html&gt;`_
-- Reading and Writing Data: `Read from Ways To Store and Read Data &lt;../notebooks/class_3/week_3/00_plaintext_files.html&gt;`_ through ways to `Store and Read Binary Data &lt;../notebooks/class_3/week_3/05_binary_files.html&gt;`_
-- `Missing Data &lt;../notebooks/class_3/week_3/35_cleaning_missing_data.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Plotting Principles &lt;../notebooks/class_5/week_1/1.1.2_effective_plotting_practices.html&gt;`_
 - `Matplotlib Basics &lt;../notebooks/class_5/week_1/1.2.1_basic_plotting_with_matplotlib.html&gt;`_
 - `Matplotlib Vocabulary &lt;../notebooks/class_5/week_1/1.2.2_ten_figure_pieces.html&gt;`_
@@ -430,6 +424,12 @@
   </si>
   <si>
     <t>Thurs, Nov 20</t>
+  </si>
+  <si>
+    <t>- `Indices &lt;../notebooks/class_3/week_3/07_indices.html&gt;`_
+- `Views and Copies in Pandas &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_ through `the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/17_views_and_copies_in_pandas_wo_CoW.html&gt;`_
+- Reading and Writing Data: `Read from Ways To Store and Read Data &lt;../notebooks/class_3/week_3/03_plaintext_files.html&gt;`_ through ways to `Store and Read Binary Data &lt;../notebooks/class_3/week_3/05_binary_files.html&gt;`_
+- `Missing Data &lt;../notebooks/class_3/week_3/35_cleaning_missing_data.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +865,7 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>16</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>50</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>37</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>38</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>39</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>40</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>41</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="18" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>45</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
@@ -1103,27 +1103,27 @@
     </row>
     <row r="20" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>43</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>44</v>
@@ -1145,25 +1145,25 @@
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>46</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>47</v>
@@ -1185,27 +1185,27 @@
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D838867-419A-0C4F-BA0B-4B6FC00EFF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B37EC5-61A1-8E41-B831-82BA031323D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -342,12 +342,6 @@
 - `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
   </si>
   <si>
-    <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
-- `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
-- Using AI Effectively **Link forthcoming**</t>
-  </si>
-  <si>
     <t>Tues, Aug 26</t>
   </si>
   <si>
@@ -430,6 +424,12 @@
 - `Views and Copies in Pandas &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_ through `the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/17_views_and_copies_in_pandas_wo_CoW.html&gt;`_
 - Reading and Writing Data: `Read from Ways To Store and Read Data &lt;../notebooks/class_3/week_3/03_plaintext_files.html&gt;`_ through ways to `Store and Read Binary Data &lt;../notebooks/class_3/week_3/05_binary_files.html&gt;`_
 - `Missing Data &lt;../notebooks/class_3/week_3/35_cleaning_missing_data.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
+- `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
+- `Regex &lt;https://realpython.com/regex-python/&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -865,7 +865,7 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>16</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>50</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>37</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>38</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>22</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="18" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="20" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>19</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>65</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B37EC5-61A1-8E41-B831-82BA031323D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D8452-AC77-FE4E-A7BC-820937D2FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -428,8 +428,7 @@
   <si>
     <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
 - `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
-- `Regex &lt;https://realpython.com/regex-python/&gt;`_</t>
+- `Datacamp Class "Regular Expressions for Pattern Matching," Chapter 3 (Introduction to regular expressions) &lt;https://campus.datacamp.com/courses/regular-expressions-in-python/basic-concepts-of-string-manipulation?ex=1&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -837,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D8452-AC77-FE4E-A7BC-820937D2FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586C6CE7-9C90-E840-9F91-D08B0B43A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="6000" yWindow="2220" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586C6CE7-9C90-E840-9F91-D08B0B43A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360F065D-8F93-F346-94D5-C065AB7C6D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="2220" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -160,57 +160,6 @@
 - Git and Github</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.html&gt;`_
-- `Ex 2 &lt;exercises/Exercise_jupytervscode.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_debugger.html&gt;`_
-- `Ex 2 &lt;exercises/Exercise_variables_v_objects.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_series.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_dataframes.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_indices.html&gt;`_
-- `Link 2 &lt;exercises/Exercise_missing.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_cleaning.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part1.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part2.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_merging.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_bigdata.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_groupby.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_reshaping.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_statsmodels.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_sklearn.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
 - `Debugging Tools &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
 - `Python Debugger in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
@@ -220,17 +169,6 @@
   </si>
   <si>
     <t>- Git</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_git_2.html&gt;`_
-- `Ex 2 &lt;exercises/Exercise_numpy_vectors.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_numpy_viewcopies.html&gt;`_
-- (Finish other numpy)</t>
   </si>
   <si>
     <t>- `Git and Github &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/git_and_github.html&gt;`_
@@ -325,10 +263,6 @@
     <t>- ROUGH DRAFT OF OPIOID PROJECT DUE, extendable to Morning of Mon Nov 26 but feedback may be later</t>
   </si>
   <si>
-    <t>- `Dask &lt;exercises/Exercise_dask_realdata.html&gt;`_
-- `More dask (optional) &lt;exercises/Exercise_dask.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Understanding Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
 - `Solving Performance Problems &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_</t>
   </si>
@@ -429,6 +363,72 @@
     <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
 - `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
 - `Datacamp Class "Regular Expressions for Pattern Matching," Chapter 3 (Introduction to regular expressions) &lt;https://campus.datacamp.com/courses/regular-expressions-in-python/basic-concepts-of-string-manipulation?ex=1&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;exercises/exercise_CommandLine_1_Basics.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/exercise_CommandLine_2_Advanced.html&gt;`_
+- `Ex 2 &lt;exercises/exercise_jupytervscode.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/exercise_debugger.html&gt;`_
+- `Ex 2 &lt;exercises/exercise_variables_v_objects.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/exercise_git.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/exercise_git_2.html&gt;`_
+- `Ex 2 &lt;exercises/exercise_numpy_vectors.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/exercise_numpy_viewcopies.html&gt;`_
+- (Finish other numpy)</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_series.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_dataframes.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/exercise_indices.html&gt;`_
+- `Link 2 &lt;exercises/exercise_missing.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_cleaning.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_plotting_part1.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_plotting_part2.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_merging.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_statsmodels.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_bigdata.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_groupby.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_sklearn.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_codeyourownlinearregression.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Dask &lt;exercises/exercise_dask_realdata.html&gt;`_
+- `More dask (optional) &lt;exercises/exercise_dask.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>16</v>
@@ -885,12 +885,12 @@
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
@@ -899,166 +899,166 @@
         <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1074,21 +1074,21 @@
     </row>
     <row r="18" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
@@ -1097,114 +1097,114 @@
         <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360F065D-8F93-F346-94D5-C065AB7C6D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE014C-8CA4-3E47-B0B5-E906777F4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2220" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -233,10 +233,6 @@
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience_book/blob/main/ids720_specific/opioids/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
-    <t>- Defensive Programming: from `first reading &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_ through `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
-- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- Wes McKinney's *Python for Data Analysis*, Third Edition, Chapter 8, Section 3. Available `online through duke library free &lt;https://learning.oreilly.com/library/view/python-for-data/9781098104023/ch08.html#prep_reshape&gt;`_
 - `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
@@ -270,12 +266,6 @@
     <t>- Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
   </si>
   <si>
-    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
-- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
-  </si>
-  <si>
     <t>Tues, Aug 26</t>
   </si>
   <si>
@@ -429,6 +419,15 @@
   <si>
     <t>- `Dask &lt;exercises/exercise_dask_realdata.html&gt;`_
 - `More dask (optional) &lt;exercises/exercise_dask.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defensive Programming: from `first reading &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_ through `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
+- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -836,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +863,7 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -876,7 +875,7 @@
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>16</v>
@@ -885,12 +884,12 @@
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
@@ -899,12 +898,12 @@
         <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -913,12 +912,12 @@
         <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
@@ -927,12 +926,12 @@
         <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -941,12 +940,12 @@
         <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -955,12 +954,12 @@
         <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -969,12 +968,12 @@
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -983,40 +982,40 @@
         <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -1025,12 +1024,12 @@
         <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>22</v>
@@ -1039,12 +1038,12 @@
         <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
@@ -1053,12 +1052,12 @@
         <v>42</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1066,145 +1065,145 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>43</v>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE014C-8CA4-3E47-B0B5-E906777F4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F1A1E-6FB0-8349-A1DA-44DECC7E9B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <t>Date, Rm</t>
   </si>
   <si>
-    <t>- Pandas: Reshaping
-- Pandas: Categoricals</t>
-  </si>
-  <si>
     <t>- Parallelism 
 - Distributed Computing</t>
   </si>
@@ -233,11 +229,6 @@
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience_book/blob/main/ids720_specific/opioids/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
-    <t>- Wes McKinney's *Python for Data Analysis*, Third Edition, Chapter 8, Section 3. Available `online through duke library free &lt;https://learning.oreilly.com/library/view/python-for-data/9781098104023/ch08.html#prep_reshape&gt;`_
-- `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- Defining Your Own Estimators</t>
   </si>
   <si>
@@ -428,6 +419,15 @@
 - `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
 - `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
 - `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Pandas: Reshaping</t>
+  </si>
+  <si>
+    <t>- Wes McKinney's *Python for Data Analysis*, Third Edition, Chapter 8, Section 3. Available `online through duke library free &lt;https://learning.oreilly.com/library/view/python-for-data/9781098104023/ch08.html#prep_reshape&gt;`_
+- `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
+- `Reshaping &lt;../notebooks/class_3/week_4/20.2_reshaping_data.html&gt;`_
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,355 +863,355 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_720_xlsx.xlsx
+++ b/ids720_specific/class_schedule_720_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F1A1E-6FB0-8349-A1DA-44DECC7E9B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F515175-E8F6-9B4A-9AB3-5754D231A49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -346,72 +346,6 @@
 - `Datacamp Class "Regular Expressions for Pattern Matching," Chapter 3 (Introduction to regular expressions) &lt;https://campus.datacamp.com/courses/regular-expressions-in-python/basic-concepts-of-string-manipulation?ex=1&gt;`_</t>
   </si>
   <si>
-    <t>- `Ex &lt;exercises/exercise_CommandLine_1_Basics.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/exercise_CommandLine_2_Advanced.html&gt;`_
-- `Ex 2 &lt;exercises/exercise_jupytervscode.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/exercise_debugger.html&gt;`_
-- `Ex 2 &lt;exercises/exercise_variables_v_objects.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/exercise_git.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/exercise_git_2.html&gt;`_
-- `Ex 2 &lt;exercises/exercise_numpy_vectors.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/exercise_numpy_viewcopies.html&gt;`_
-- (Finish other numpy)</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_series.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_dataframes.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/exercise_indices.html&gt;`_
-- `Link 2 &lt;exercises/exercise_missing.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_cleaning.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_plotting_part1.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_plotting_part2.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_merging.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_statsmodels.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_bigdata.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_groupby.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_reshaping.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_sklearn.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/exercise_codeyourownlinearregression.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Dask &lt;exercises/exercise_dask_realdata.html&gt;`_
-- `More dask (optional) &lt;exercises/exercise_dask.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
   </si>
   <si>
@@ -428,6 +362,72 @@
 - `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
 - `Reshaping &lt;../notebooks/class_3/week_4/20.2_reshaping_data.html&gt;`_
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;../exercises/exercise_CommandLine_1_Basics.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;../exercises/exercise_CommandLine_2_Advanced.html&gt;`_
+- `Ex 2 &lt;../exercises/exercise_jupytervscode.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;../exercises/exercise_debugger.html&gt;`_
+- `Ex 2 &lt;../exercises/exercise_variables_v_objects.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;../exercises/exercise_git.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;../exercises/exercise_git_2.html&gt;`_
+- `Ex 2 &lt;../exercises/exercise_numpy_vectors.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;../exercises/exercise_numpy_viewcopies.html&gt;`_
+- (Finish other numpy)</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_series.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_dataframes.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;../exercises/exercise_indices.html&gt;`_
+- `Link 2 &lt;../exercises/exercise_missing.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_cleaning.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_plotting_part1.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_plotting_part2.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_merging.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_bigdata.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_statsmodels.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_groupby.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_sklearn.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_codeyourownlinearregression.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Dask &lt;../exercises/exercise_dask_realdata.html&gt;`_
+- `More dask (optional) &lt;../exercises/exercise_dask.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -898,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -954,7 +954,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="109" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1038,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>42</v>
@@ -1110,7 +1110,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1121,10 +1121,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,13 +1132,13 @@
         <v>70</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
